--- a/output/01.technical_outliers_and_loq/Kerguelen_fish_samples_compo_results_no-tech-outliers.xlsx
+++ b/output/01.technical_outliers_and_loq/Kerguelen_fish_samples_compo_results_no-tech-outliers.xlsx
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">2005_STOMSP_SS01</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
   <si>
     <t xml:space="preserve">0.12726901896797879</t>
